--- a/aula2509.xlsx
+++ b/aula2509.xlsx
@@ -8,109 +8,149 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/SAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD063B8B-D284-1F40-9AF2-97B584E4C186}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10F78FE-710C-1141-B883-DEA1F9D2F588}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="14700" activeTab="3" xr2:uid="{E371E270-C179-134F-8397-13A6DAFB84C5}"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="18360" windowHeight="14700" activeTab="1" xr2:uid="{E371E270-C179-134F-8397-13A6DAFB84C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Report 1" sheetId="2" r:id="rId1"/>
     <sheet name="EXEMPLO" sheetId="1" r:id="rId2"/>
     <sheet name="EX2- RIR" sheetId="5" r:id="rId3"/>
     <sheet name="EX4-ROLOS" sheetId="6" r:id="rId4"/>
+    <sheet name="PI- ex5" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="DECISAO">'EX4-ROLOS'!$A$4:$E$4</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'EX2- RIR'!$A$5:$F$5</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'EX4-ROLOS'!$A$4:$E$4</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">EXEMPLO!$D$5:$E$5</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'PI- ex5'!$B$15:$H$15,'PI- ex5'!$B$17:$H$20</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'EX2- RIR'!$G$7:$G$9</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'EX4-ROLOS'!$F$6:$F$8</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">EXEMPLO!$F$7:$F$9</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'PI- ex5'!$B$17:$H$20</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'PI- ex5'!$B$22:$H$22</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'PI- ex5'!$I$17:$I$20</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'PI- ex5'!$B$15:$H$15</definedName>
     <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'EX2- RIR'!$G$5</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'EX4-ROLOS'!$F$4</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">EXEMPLO!$F$5</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'PI- ex5'!$I$22</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">5</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">'EX2- RIR'!$H$7:$H$9</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">'EX4-ROLOS'!$G$6:$G$8</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">EXEMPLO!$G$7:$G$9</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">integer</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">'PI- ex5'!$J$17:$J$20</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">binary</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.25</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="varDeci">'PI- ex5'!$B$15:$H$15</definedName>
     <definedName name="variaveis">EXEMPLO!$D$5:$E$5</definedName>
     <definedName name="varivael">'EX2- RIR'!$A$5:$F$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -120,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Microsoft Excel 16.17 Sensitivity Report</t>
   </si>
@@ -174,13 +214,28 @@
   </si>
   <si>
     <t>$F$9</t>
+  </si>
+  <si>
+    <t>artigo/máquina</t>
+  </si>
+  <si>
+    <t>procuras</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>restriçoes capacidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cap max </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -204,8 +259,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,8 +304,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -289,11 +381,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -309,6 +416,38 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,7 +768,7 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
@@ -637,27 +776,27 @@
     <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="17" thickBot="1">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
@@ -667,7 +806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="17" thickBot="1">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -681,7 +820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
@@ -693,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="17" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -705,12 +844,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="17" thickBot="1">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
@@ -720,7 +859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="17" thickBot="1">
       <c r="B14" s="7" t="s">
         <v>4</v>
       </c>
@@ -734,7 +873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
@@ -746,7 +885,7 @@
         <v>0.33333336114883266</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
@@ -758,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="17" thickBot="1">
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
@@ -779,13 +918,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D14120-C447-1248-AED8-D09202BB31F2}">
   <dimension ref="D4:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:7">
       <c r="D4">
         <v>3</v>
       </c>
@@ -793,7 +932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:7">
       <c r="D5" s="1">
         <v>26.333333347241084</v>
       </c>
@@ -805,7 +944,7 @@
         <v>113.66666667362054</v>
       </c>
     </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:7">
       <c r="D7">
         <v>5</v>
       </c>
@@ -820,7 +959,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:7">
       <c r="D8">
         <v>4</v>
       </c>
@@ -835,7 +974,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:7">
       <c r="D9">
         <v>2</v>
       </c>
@@ -863,9 +1002,9 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>300</v>
       </c>
@@ -885,7 +1024,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4000</v>
       </c>
@@ -909,7 +1048,7 @@
         <v>7020000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1</v>
       </c>
@@ -921,7 +1060,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="B8">
         <v>1</v>
       </c>
@@ -936,7 +1075,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="D9">
         <v>1</v>
       </c>
@@ -963,13 +1102,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506302C2-E697-6149-B9DC-6A1BA8B2DBA7}">
   <dimension ref="A3:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>10</v>
       </c>
@@ -986,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1000.0000000000002</v>
       </c>
@@ -1007,7 +1146,7 @@
         <v>10000.000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -1025,7 +1164,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -1045,7 +1184,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="10"/>
       <c r="B8" s="10">
         <v>1</v>
@@ -1064,6 +1203,526 @@
       <c r="G8">
         <v>1200</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A76769A-2614-EE43-8886-53E3CA098E76}">
+  <dimension ref="A2:O23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>2</v>
+      </c>
+      <c r="D7" s="14">
+        <v>3</v>
+      </c>
+      <c r="E7" s="14">
+        <v>4</v>
+      </c>
+      <c r="F7" s="14">
+        <v>5</v>
+      </c>
+      <c r="G7" s="14">
+        <v>6</v>
+      </c>
+      <c r="H7" s="14">
+        <v>7</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="14">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="14">
+        <v>18</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="14">
+        <v>2</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="21">
+        <v>9</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="14">
+        <v>3</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="22">
+        <v>12</v>
+      </c>
+      <c r="J10" s="22"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="14">
+        <v>4</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
+      <c r="I11" s="21">
+        <v>6</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="16">
+        <v>0</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1</v>
+      </c>
+      <c r="C16" s="14">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
+        <v>3</v>
+      </c>
+      <c r="E16" s="14">
+        <v>4</v>
+      </c>
+      <c r="F16" s="14">
+        <v>5</v>
+      </c>
+      <c r="G16" s="14">
+        <v>6</v>
+      </c>
+      <c r="H16" s="14">
+        <v>7</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="14">
+        <v>1</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18">
+        <f>SUMPRODUCT(B17:H17,B8:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="14">
+        <v>5</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="14">
+        <v>2</v>
+      </c>
+      <c r="B18" s="17">
+        <v>0</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="18">
+        <f>SUMPRODUCT(B18:H18,B9:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="14">
+        <v>3</v>
+      </c>
+      <c r="B19" s="17">
+        <v>0</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18">
+        <f>SUMPRODUCT(B19:H19,B10:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="14">
+        <v>4</v>
+      </c>
+      <c r="B20" s="17">
+        <v>0</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17">
+        <v>0</v>
+      </c>
+      <c r="I20" s="18">
+        <f t="shared" ref="I20" si="0">SUMPRODUCT(B20:H20,B11:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19">
+        <f>B17/I8+B18/I9-B15</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="19">
+        <f>C18/I9+C19/I10+C20/I11-C15</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="19">
+        <f>D17/I8+D20/I11-D15</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>E18/I9+E19/I10-E15</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="19">
+        <f>F17/I8+F18/I9+F20/I11-F15</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
+        <f>G18/I9+G20/I11-G15</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
+        <f>H19/I10+H20/I11-H15</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="20">
+        <f>SUM(varDeci)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
